--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="2">
   <si>
     <t>test</t>
   </si>
   <si>
-    <t/>
+    <t>zmiana</t>
   </si>
 </sst>
 </file>
@@ -56,12 +56,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -375,12 +372,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -425,15 +422,13 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="F4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
